--- a/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
+++ b/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-23T23:59:47+02:00</t>
+    <t>2023-09-05T10:10:09+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
+++ b/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
@@ -25,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/hn-appointment-AppointmentType-code-vs</t>
+    <t>http://helsenorge.no/fhir/ValueSet/hn-appointment-AppointmentType-code-vs</t>
   </si>
   <si>
     <t>Version</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-05T10:10:09+02:00</t>
+    <t>2023-09-20T09:32:23+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -115,7 +115,7 @@
     <t>All codes</t>
   </si>
   <si>
-    <t>http://example.org/CodeSystem/Hn-AppointmentTypeProposed-New-Codes-cs</t>
+    <t>http://helsenorge.no/fhir/CodeSystem/Hn-AppointmentTypeProposed-New-Codes-cs</t>
   </si>
 </sst>
 </file>

--- a/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
+++ b/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-20T09:32:23+02:00</t>
+    <t>2023-09-25T00:16:31+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
+++ b/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-25T00:16:31+02:00</t>
+    <t>2023-09-25T11:50:22+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
+++ b/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-25T11:50:22+02:00</t>
+    <t>2023-09-25T15:31:18+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
+++ b/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-25T15:31:18+02:00</t>
+    <t>2023-09-25T15:44:07+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
+++ b/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-25T15:44:07+02:00</t>
+    <t>2023-10-05T16:09:33+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
+++ b/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>Property</t>
   </si>
@@ -55,10 +55,13 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T16:09:33+02:00</t>
+    <t>2023-10-09T22:41:16+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -311,58 +314,60 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -384,42 +389,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -441,28 +446,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
+++ b/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-09T22:41:16+02:00</t>
+    <t>2023-10-11T00:03:21+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
+++ b/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-11T00:03:21+02:00</t>
+    <t>2023-10-12T00:15:11+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
+++ b/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12T00:15:11+02:00</t>
+    <t>2023-10-12T00:46:45+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
+++ b/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12T00:46:45+02:00</t>
+    <t>2023-11-08T00:53:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
+++ b/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-08T00:53:28+01:00</t>
+    <t>2023-11-08T01:12:56+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
+++ b/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-08T01:12:56+01:00</t>
+    <t>2023-11-08T15:53:02+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
+++ b/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
@@ -8,13 +8,14 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include from unknown" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from New codes propos" r:id="rId5" sheetId="3"/>
+    <sheet name="Include from unknown 2" r:id="rId5" sheetId="3"/>
+    <sheet name="Include from New codes that s" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>Property</t>
   </si>
@@ -55,13 +56,13 @@
     <t>Experimental</t>
   </si>
   <si>
-    <t>false</t>
+    <t>true</t>
   </si>
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-08T15:53:02+01:00</t>
+    <t>2023-11-19T21:48:09+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -79,7 +80,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Value set for AppointmentType codes in nytimeløsing - from Timetype innbyggerportal and some new codes</t>
+    <t>Value set for AppointmentType codes in nytimeløsing that includes set of codes from diferent code systems</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -100,9 +101,15 @@
     <t>Vaksine</t>
   </si>
   <si>
+    <t>Vaksine time</t>
+  </si>
+  <si>
     <t>Lab</t>
   </si>
   <si>
+    <t>Lab time</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -110,6 +117,30 @@
   </si>
   <si>
     <t>urn:oid:2.16.578.1.12.4.1.1.7617</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Innleggelse</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Dagbehandling</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Poliklinisk time</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>urn:oid:2.16.578.1.12.4.1.1.8406</t>
   </si>
   <si>
     <t>Codes</t>
@@ -400,31 +431,31 @@
         <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -433,6 +464,79 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -446,28 +550,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
+++ b/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-19T21:48:09+01:00</t>
+    <t>2023-11-27T12:35:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
+++ b/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-27T12:35:55+01:00</t>
+    <t>2023-12-04T09:08:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
+++ b/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-04T09:08:22+01:00</t>
+    <t>2023-12-07T13:24:46+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
+++ b/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-07T13:24:46+01:00</t>
+    <t>2023-12-07T15:19:19+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
+++ b/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-07T15:19:19+01:00</t>
+    <t>2023-12-08T09:35:25+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
+++ b/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-08T09:35:25+01:00</t>
+    <t>2023-12-08T12:58:44+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
+++ b/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-08T12:58:44+01:00</t>
+    <t>2023-12-08T15:31:30+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
+++ b/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-08T15:31:30+01:00</t>
+    <t>2023-12-13T23:52:19+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
+++ b/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T23:52:19+01:00</t>
+    <t>2023-12-15T20:08:30+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
+++ b/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
@@ -10,12 +10,13 @@
     <sheet name="Include from unknown" r:id="rId4" sheetId="2"/>
     <sheet name="Include from unknown 2" r:id="rId5" sheetId="3"/>
     <sheet name="Include from New codes that s" r:id="rId6" sheetId="4"/>
+    <sheet name="Include from unknown 3" r:id="rId7" sheetId="5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
   <si>
     <t>Property</t>
   </si>
@@ -62,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-15T20:08:30+01:00</t>
+    <t>2023-12-19T12:28:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -150,6 +151,9 @@
   </si>
   <si>
     <t>http://helsenorge.no/fhir/CodeSystem/Hn-AppointmentTypeProposed-New-Codes-cs</t>
+  </si>
+  <si>
+    <t>urn:oid:2.16.578.1.12.4.1.1.8432</t>
   </si>
 </sst>
 </file>
@@ -577,4 +581,47 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
+++ b/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
@@ -10,13 +10,12 @@
     <sheet name="Include from unknown" r:id="rId4" sheetId="2"/>
     <sheet name="Include from unknown 2" r:id="rId5" sheetId="3"/>
     <sheet name="Include from New codes that s" r:id="rId6" sheetId="4"/>
-    <sheet name="Include from unknown 3" r:id="rId7" sheetId="5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-19T12:28:54+01:00</t>
+    <t>2023-12-21T10:30:52+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -151,9 +150,6 @@
   </si>
   <si>
     <t>http://helsenorge.no/fhir/CodeSystem/Hn-AppointmentTypeProposed-New-Codes-cs</t>
-  </si>
-  <si>
-    <t>urn:oid:2.16.578.1.12.4.1.1.8432</t>
   </si>
 </sst>
 </file>
@@ -581,47 +577,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>
--- a/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
+++ b/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-21T10:30:52+01:00</t>
+    <t>2024-01-15T07:10:14+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
+++ b/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include from unknown" r:id="rId4" sheetId="2"/>
     <sheet name="Include from unknown 2" r:id="rId5" sheetId="3"/>
-    <sheet name="Include from New codes that s" r:id="rId6" sheetId="4"/>
+    <sheet name="Include from Default codes fo" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T07:10:14+01:00</t>
+    <t>2024-01-16T01:49:14+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
+++ b/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-16T01:49:14+01:00</t>
+    <t>2024-02-09T14:16:42+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
+++ b/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T14:16:42+01:00</t>
+    <t>2024-06-01T10:49:22+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
+++ b/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
@@ -7,15 +7,15 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from unknown" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from unknown 2" r:id="rId5" sheetId="3"/>
-    <sheet name="Include from Default codes fo" r:id="rId6" sheetId="4"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
+    <sheet name="Include #2" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
   <si>
     <t>Property</t>
   </si>
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-01T10:49:22+02:00</t>
+    <t>2025-01-31T12:01:35+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -74,7 +74,13 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Example Publisher (http://example.org/example-publisher)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -108,9 +114,6 @@
   </si>
   <si>
     <t>Lab time</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>System URI</t>
@@ -283,7 +286,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -385,20 +388,28 @@
       <c r="A12" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>25</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -420,42 +431,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -477,58 +488,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s" s="2">
         <v>40</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>39</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -550,28 +561,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
+++ b/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T12:01:35+01:00</t>
+    <t>2025-01-31T15:15:59+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
+++ b/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T15:15:59+01:00</t>
+    <t>2025-01-31T16:07:19+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
+++ b/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T16:07:19+01:00</t>
+    <t>2025-02-01T23:53:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
+++ b/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-01T23:53:20+01:00</t>
+    <t>2025-02-15T12:00:41+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
+++ b/ValueSet-hn-appointment-AppointmentType-code-vs.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-15T12:00:41+01:00</t>
+    <t>2025-06-05T14:31:57+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
